--- a/Publications/10.06.2013 - Biometric Summer School/ZeeBigResult.xlsx
+++ b/Publications/10.06.2013 - Biometric Summer School/ZeeBigResult.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cuda-fingerprinting\Publications\10.06.2013 - Biometric Summer School\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="ZeeBigResult" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -526,54 +531,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -582,7 +590,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -600,12 +608,12 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
               <c:f>ZeeBigResult!$D$1:$D$33</c:f>
               <c:numCache>
@@ -712,15 +720,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>ZeeBigResult!$E$1:$E$33</c:f>
@@ -836,22 +836,264 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="62338560"/>
-        <c:axId val="91475328"/>
+        <c:axId val="231247152"/>
+        <c:axId val="231247712"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ZeeBigResult!$D$1:$D$33</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="33"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.99618953294412005</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.82198707256046699</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.3505108423686405</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.006411592994167E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.278930358632191E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.6445996663886353E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.8765638031692511E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.5638031693132604E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ZeeBigResult!$D$1:$D$33</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="33"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.99618953294412005</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.82198707256046699</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.3505108423686405</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.006411592994167E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.278930358632191E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.6445996663886353E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.8765638031692511E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.5638031693132604E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62338560"/>
+        <c:axId val="231247152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91475328"/>
+        <c:crossAx val="231247712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -859,7 +1101,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91475328"/>
+        <c:axId val="231247712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -870,7 +1112,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62338560"/>
+        <c:crossAx val="231247152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -890,6 +1132,1129 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1673665791776031E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.89143744531933511"/>
+          <c:h val="0.77736111111111106"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ZeeBigResult!$D$1:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99618953294412005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82198707256046699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3505108423686405</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.006411592994167E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.278930358632191E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6445996663886353E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8765638031692511E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5638031693132604E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ZeeBigResult!$E$1:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7402597402597403E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3441558441558439E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13376623376623376</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22402597402597402</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.287012987012987</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34155844155844156</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39253246753246751</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.45389610389610391</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.51461038961038963</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.57045454545454544</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.62889610389610384</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.7295454545454545</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.78344155844155849</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.82435064935064939</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.86818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9029220779220779</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.92889610389610389</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.95487012987012987</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.97564935064935066</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.98506493506493509</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99448051948051952</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.99870129870129876</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.99902597402597404</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.99967532467532472</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="324175424"/>
+        <c:axId val="324172624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="324175424"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1.0000000000000004E-5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FAR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="324172624"/>
+        <c:crossesAt val="1.0000000000000003E-4"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="324172624"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FRR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="324175424"/>
+        <c:crossesAt val="1.0000000000000004E-5"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -924,13 +2289,43 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -968,9 +2363,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1005,7 +2400,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1040,7 +2435,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1217,7 +2612,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
